--- a/medicine/Enfance/Cyril_Hare/Cyril_Hare.xlsx
+++ b/medicine/Enfance/Cyril_Hare/Cyril_Hare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred Gordon Clark, né le 4 septembre 1900 à Mickleham, dans le Surrey, et mort le 25 août 1958 à Box Hill dans le Surrey, est un juge mieux connu sous le pseudonyme de Cyril Hare, un écrivain britannique, auteur de roman policier.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gordon Clark fait ses études à la Rugby School, puis entre à la faculté d'Histoire du New College de l'Université d'Oxford. Il étudie ensuite le Droit et devient membre du barreau du Middle Temple en 1924. Il entreprend une carrière dans le milieu juridiciaire et pénal. Au début de la Seconde Guerre mondiale, il est nommé juge, mais sert brièvement au Ministry of Economic Warfare et travaille dans le bureau du Director of Public Prosecutions entre 1942 et 1945, avant de reprendre son poste de juge, une fonction qu'il exerce dans le Surrey pendant les années 1950.
 En littérature, il adopte le pseudonyme de Cyril Hare pour signer plusieurs romans policiers où transparaît son expérience de la magistrature et des procédures judiciaires, notamment dans Tragedy at Law (1942), roman où se retrouvent ses deux héros récurrents, l'avocat malchanceux et gaffeur Francis Pettigrew et l'inspecteur Mallett, un détective consciencieux de Scotland Yard.
@@ -548,30 +562,21 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Inspecteur Mallett
-Tenant for Death (1937) Publié en français sous le titre Le Locataire de la mort, adapté en français par Jean Privat, Paris, Éditions des loisirs, coll. Loisirs-Police, 1941 ; réédition dans une traduction complète de Melchior d'Albène, Paris, Éditions des loisirs, coll. Le Yard no 12, 1949
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Inspecteur Mallett</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tenant for Death (1937) Publié en français sous le titre Le Locataire de la mort, adapté en français par Jean Privat, Paris, Éditions des loisirs, coll. Loisirs-Police, 1941 ; réédition dans une traduction complète de Melchior d'Albène, Paris, Éditions des loisirs, coll. Le Yard no 12, 1949
 Death is No Sportsman (1938)
 Suicide Excepted (1939)
 Tragedy at Law (1942), le personnage de Francis Pettigrew fait une apparition dans ce roman
-He Should Have Died Hereafter (1958), aussi titré Untimely Death - le personnage de Francis Pettigrew fait une apparition dans ce roman
-Série Francis Pettigrew
-With a Bare Bodkin (1946), le personnage de l'inspecteur Mallett fait une apparition dans ce roman
-When the Wind Blows (1949), aussi titré The Wind Blows Death Publié en français sous le titre Le Clarinettiste manquant, traduit par Mathilde Martin, Paris, Payot &amp; Rivages, coll. Rivages/Noir no 686, 2008  (ISBN 978-2-7436-1803-2)
-That Yew Tree's Shade (1954), aussi titré Death Walks the Woods
-Autres romans
-An English Murder (1951), aussi titré The Christmas Murder Publié en français sous le titre Meurtre à l'anglaise, traduit par Mathilde Martin, Paris, Payot &amp; Rivages, coll. Rivages/Noir no 544, 2004  (ISBN 2-7436-1353-X) ; réédition dans la même collection en 2023  (ISBN 978-2-7436-6120-5)
-Recueil de nouvelles
-Best Detective Stories of Cyril Hare (1959), aussi titré Death Among Friends - publication posthume
-Nouvelles posthumes
-The Boldest Course (1960)
-The Homing Wasp (1961)
-Blenkinshop's Biggest Boner (1961)
-I Never Forget a Face (1966)
-Ouvrage de littérature d'enfance et de jeunesse
-The Magic Bottle (1946)
-Théâtre
-The House of Warbeck (1955)</t>
+He Should Have Died Hereafter (1958), aussi titré Untimely Death - le personnage de Francis Pettigrew fait une apparition dans ce roman</t>
         </is>
       </c>
     </row>
@@ -596,13 +601,247 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Francis Pettigrew</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>With a Bare Bodkin (1946), le personnage de l'inspecteur Mallett fait une apparition dans ce roman
+When the Wind Blows (1949), aussi titré The Wind Blows Death Publié en français sous le titre Le Clarinettiste manquant, traduit par Mathilde Martin, Paris, Payot &amp; Rivages, coll. Rivages/Noir no 686, 2008  (ISBN 978-2-7436-1803-2)
+That Yew Tree's Shade (1954), aussi titré Death Walks the Woods</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cyril_Hare</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyril_Hare</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>An English Murder (1951), aussi titré The Christmas Murder Publié en français sous le titre Meurtre à l'anglaise, traduit par Mathilde Martin, Paris, Payot &amp; Rivages, coll. Rivages/Noir no 544, 2004  (ISBN 2-7436-1353-X) ; réédition dans la même collection en 2023  (ISBN 978-2-7436-6120-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cyril_Hare</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyril_Hare</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Best Detective Stories of Cyril Hare (1959), aussi titré Death Among Friends - publication posthume</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cyril_Hare</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyril_Hare</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouvelles posthumes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>The Boldest Course (1960)
+The Homing Wasp (1961)
+Blenkinshop's Biggest Boner (1961)
+I Never Forget a Face (1966)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cyril_Hare</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyril_Hare</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ouvrage de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>The Magic Bottle (1946)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cyril_Hare</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyril_Hare</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>The House of Warbeck (1955)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cyril_Hare</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyril_Hare</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>À la télévision
-1955 : A Present from Bessie, épisode de la série télévisée Lilli Palmer Theatre, adaptation de la nouvelle Sister Bessie.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1955 : A Present from Bessie, épisode de la série télévisée Lilli Palmer Theatre, adaptation de la nouvelle Sister Bessie.
 1970 : Die Kriminalnovelle, mini-série allemande.
 1975 : Chisto angliyskoe ubiystvo, téléfilm russe réalisé par Samson Samsonov, d'après le roman Meurtre à l'anglaise (An English Murder).</t>
         </is>
